--- a/4.SUBMIT_PLACE/4.2 HIEN_NGUYEN/PLANNING/BSS_RiskList_V1.0.xlsx
+++ b/4.SUBMIT_PLACE/4.2 HIEN_NGUYEN/PLANNING/BSS_RiskList_V1.0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Risk score</t>
   </si>
   <si>
@@ -260,7 +257,13 @@
     <t>Indentified_Date</t>
   </si>
   <si>
-    <t>Status_date</t>
+    <t>Issue Description</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Probability(scale)</t>
   </si>
 </sst>
 </file>
@@ -710,14 +713,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,8 +742,71 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -750,78 +816,18 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
         <top style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -860,6 +866,184 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -924,6 +1108,147 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1112,353 +1437,31 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C6500"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2175,10 +2178,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -2825,43 +2828,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:L33" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:L33" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B5:L33"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="27">
+    <tableColumn id="1" name="ID" dataDxfId="24">
       <calculatedColumnFormula>B5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Risk Description" dataDxfId="26"/>
-    <tableColumn id="6" name="Department" dataDxfId="25"/>
-    <tableColumn id="4" name="Actual Status" dataDxfId="24"/>
-    <tableColumn id="3" name="Indentified_Date" dataDxfId="23"/>
-    <tableColumn id="5" name="Status_date" dataDxfId="0"/>
-    <tableColumn id="9" name="Impact" dataDxfId="22"/>
-    <tableColumn id="12" name="Probability" dataDxfId="21"/>
-    <tableColumn id="8" name="Risk score" dataDxfId="20">
-      <calculatedColumnFormula>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</calculatedColumnFormula>
+    <tableColumn id="2" name="Risk Description" dataDxfId="23"/>
+    <tableColumn id="6" name="Department" dataDxfId="22"/>
+    <tableColumn id="4" name="Actual Status" dataDxfId="21"/>
+    <tableColumn id="3" name="Indentified_Date" dataDxfId="20"/>
+    <tableColumn id="5" name="Owner" dataDxfId="19"/>
+    <tableColumn id="9" name="Impact" dataDxfId="18"/>
+    <tableColumn id="12" name="Probability(scale)" dataDxfId="17"/>
+    <tableColumn id="8" name="Risk score" dataDxfId="16">
+      <calculatedColumnFormula>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Priority" dataDxfId="19"/>
-    <tableColumn id="7" name="Action" dataDxfId="18"/>
+    <tableColumn id="14" name="Priority" dataDxfId="15"/>
+    <tableColumn id="7" name="Action" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:I17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:I17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B3:I17"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="14">
+    <tableColumn id="1" name="ID" dataDxfId="7">
       <calculatedColumnFormula>B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Risk Description" dataDxfId="13"/>
-    <tableColumn id="6" name="Department" dataDxfId="12"/>
-    <tableColumn id="4" name="Actual Status" dataDxfId="11"/>
-    <tableColumn id="5" name="Open_Date" dataDxfId="7"/>
-    <tableColumn id="3" name="Close_Date" dataDxfId="10"/>
-    <tableColumn id="14" name="Priority" dataDxfId="9"/>
-    <tableColumn id="7" name="Comment" dataDxfId="8"/>
+    <tableColumn id="2" name="Issue Description" dataDxfId="6"/>
+    <tableColumn id="6" name="Department" dataDxfId="5"/>
+    <tableColumn id="4" name="Actual Status" dataDxfId="4"/>
+    <tableColumn id="5" name="Open_Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Close_Date" dataDxfId="2"/>
+    <tableColumn id="14" name="Priority" dataDxfId="1"/>
+    <tableColumn id="7" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"New",'Risk List'!$K$6:$K$33,"High")</f>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="D6" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"New",'Risk List'!$K$6:$K$33,"Medium")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"New",'Risk List'!$K$6:$K$33,"Low")</f>
@@ -3185,16 +3188,16 @@
       </c>
       <c r="F6" s="31">
         <f>SUM(C6:E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="32">
         <f>F6/F11</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"Planned",'Risk List'!$K$6:$K$33,"High")</f>
@@ -3202,7 +3205,7 @@
       </c>
       <c r="D7" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"Planned",'Risk List'!$K$6:$K$33,"Medium")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"Planned",'Risk List'!$K$6:$K$33,"Low")</f>
@@ -3210,16 +3213,16 @@
       </c>
       <c r="F7" s="31">
         <f>SUM(C7:E7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="32">
         <f>F7/F11</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="30">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"In Progress",'Risk List'!$K$6:$K$33,"High")</f>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="35">
         <f>COUNTIFS('Risk List'!$E$6:$E$33,"Reject",'Risk List'!$K$6:$K$33,"High")</f>
@@ -3340,10 +3343,10 @@
       <c r="G12" s="41"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="59"/>
+      <c r="B14" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
@@ -3434,8 +3437,8 @@
   </sheetPr>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3444,7 +3447,9 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="10" width="15" style="1" customWidth="1"/>
+    <col min="5" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="80.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
@@ -3494,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>11</v>
@@ -3503,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>76</v>
@@ -3512,16 +3517,16 @@
         <v>39</v>
       </c>
       <c r="I5" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="49" t="s">
         <v>40</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>41</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2"/>
       <c r="R5" s="4"/>
@@ -3538,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="25">
         <v>42653</v>
@@ -3551,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
       <c r="K6" s="17" t="str">
@@ -3559,7 +3564,7 @@
         <v>High</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="2"/>
       <c r="R6" s="10"/>
@@ -3571,18 +3576,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="25">
         <v>42653</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="56">
         <v>5</v>
       </c>
@@ -3590,14 +3595,14 @@
         <v>4</v>
       </c>
       <c r="J7" s="57">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
       <c r="K7" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="2"/>
       <c r="R7" s="10"/>
@@ -3628,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
       <c r="K8" s="17" t="str">
@@ -3636,7 +3641,7 @@
         <v>Medium</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2"/>
       <c r="R8" s="10"/>
@@ -3654,7 +3659,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="25">
         <v>42653</v>
@@ -3667,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>9</v>
       </c>
       <c r="K9" s="17" t="str">
@@ -3675,7 +3680,7 @@
         <v>Medium</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="2"/>
       <c r="R9" s="10"/>
@@ -3693,7 +3698,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="25">
         <v>42653</v>
@@ -3706,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>6</v>
       </c>
       <c r="K10" s="17" t="str">
@@ -3730,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="25">
         <v>42653</v>
@@ -3743,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>16</v>
       </c>
       <c r="K11" s="17" t="str">
@@ -3780,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
       <c r="K12" s="17" t="str">
@@ -3788,7 +3793,7 @@
         <v>Medium</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="11"/>
       <c r="R12" s="7"/>
@@ -3819,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
       <c r="K13" s="17" t="str">
@@ -3827,7 +3832,7 @@
         <v>Medium</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="11"/>
       <c r="R13" s="10"/>
@@ -3839,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>21</v>
@@ -3858,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>4</v>
       </c>
       <c r="K14" s="17" t="str">
@@ -3866,7 +3871,7 @@
         <v>Low</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="11"/>
       <c r="R14" s="10"/>
@@ -3884,7 +3889,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="25">
         <v>42681</v>
@@ -3897,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>10</v>
       </c>
       <c r="K15" s="17" t="str">
@@ -3905,7 +3910,7 @@
         <v>Medium</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="11"/>
       <c r="R15" s="10"/>
@@ -3923,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="25">
         <v>42681</v>
@@ -3936,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>3</v>
       </c>
       <c r="K16" s="17" t="str">
@@ -3944,7 +3949,7 @@
         <v>Low</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="11"/>
       <c r="R16" s="10"/>
@@ -3975,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
       <c r="K17" s="17" t="str">
@@ -3983,7 +3988,7 @@
         <v>High</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="11"/>
       <c r="R17" s="10"/>
@@ -4014,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
       <c r="K18" s="17" t="str">
@@ -4032,7 +4037,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>
@@ -4051,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>4</v>
       </c>
       <c r="K19" s="17" t="str">
@@ -4059,7 +4064,7 @@
         <v>Low</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" s="11"/>
       <c r="R19" s="10"/>
@@ -4077,7 +4082,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="25">
         <v>42681</v>
@@ -4090,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>3</v>
       </c>
       <c r="K20" s="17" t="str">
@@ -4114,7 +4119,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="25">
         <v>42681</v>
@@ -4127,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
       <c r="K21" s="17" t="str">
@@ -4151,7 +4156,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="25">
         <v>42681</v>
@@ -4164,7 +4169,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>25</v>
       </c>
       <c r="K22" s="17" t="str">
@@ -4172,7 +4177,7 @@
         <v>High</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22" s="11"/>
       <c r="R22" s="6"/>
@@ -4190,7 +4195,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="25">
         <v>42681</v>
@@ -4203,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>6</v>
       </c>
       <c r="K23" s="17" t="str">
@@ -4221,13 +4226,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="25">
         <v>42681</v>
@@ -4240,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
       <c r="K24" s="17" t="str">
@@ -4248,7 +4253,7 @@
         <v>High</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" s="11"/>
       <c r="R24" s="4"/>
@@ -4266,7 +4271,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="25">
         <v>42716</v>
@@ -4279,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
       <c r="K25" s="17" t="str">
@@ -4287,7 +4292,7 @@
         <v>High</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="11"/>
       <c r="R25" s="7"/>
@@ -4305,7 +4310,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="25">
         <v>42716</v>
@@ -4318,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>2</v>
       </c>
       <c r="K26" s="17" t="str">
@@ -4326,7 +4331,7 @@
         <v>Low</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" s="11"/>
       <c r="R26" s="4"/>
@@ -4344,7 +4349,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="25">
         <v>42716</v>
@@ -4357,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
       <c r="K27" s="17" t="str">
@@ -4378,10 +4383,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="25">
         <v>42737</v>
@@ -4394,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>4</v>
       </c>
       <c r="K28" s="17" t="str">
@@ -4415,10 +4420,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="25">
         <v>42737</v>
@@ -4431,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="26">
-        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability]]</f>
+        <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
       <c r="K29" s="17" t="str">
@@ -4439,7 +4444,7 @@
         <v>Medium</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M29" s="11"/>
       <c r="R29" s="4"/>
@@ -4473,7 +4478,7 @@
       <c r="D31" s="53"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="61"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57"/>
@@ -4529,13 +4534,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:K33">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",K6)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="12">
@@ -4582,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4604,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>11</v>
@@ -4613,16 +4618,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -4636,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -4651,13 +4656,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -4678,7 +4683,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="25"/>
@@ -4699,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -4720,7 +4725,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -4735,13 +4740,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -4762,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -4777,13 +4782,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -4804,7 +4809,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -4825,7 +4830,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -4888,13 +4893,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H17">
-    <cfRule type="containsText" dxfId="3" priority="41" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="42" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="43" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H4)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="44">
@@ -4968,7 +4973,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
